--- a/Experimente.xlsx
+++ b/Experimente.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrill.Marti\Desktop\PhysikLaborMotoren\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrill Marti\Desktop\PhysikLaborMotoren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39551E64-1736-4358-81D1-118FB8613E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0A1082-D1BA-47E0-A82E-680C6E0950E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Exp. 1</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>Exp. 3</t>
+  </si>
+  <si>
+    <t>Frame-N°</t>
+  </si>
+  <si>
+    <t>Angle (deg)</t>
+  </si>
+  <si>
+    <t>Angle (rad)</t>
+  </si>
+  <si>
+    <t>deltas (rad)</t>
   </si>
 </sst>
 </file>
@@ -150,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -168,7 +180,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -235,7 +247,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -359,6 +371,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Motor-Speed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -393,7 +460,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1179304975"/>
@@ -422,6 +489,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t> Duty</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH" baseline="0"/>
+                  <a:t> Cycle</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -456,7 +583,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="991709903"/>
@@ -504,12 +631,1000 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Winkelposition über Framenummer</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$40:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$40:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1693705988362009E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28221974004748313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4135421611902075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3237313661052501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3833207549910078</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8436377401346631</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2896430254119657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9107048346642985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3048738411573684</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.947577733134432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7150-471F-A701-903C522ED2E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="314284672"/>
+        <c:axId val="316344400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="314284672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Framenummer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316344400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="316344400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Winkeposition (rad)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314284672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Winkelgeschwindigkeit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0"/>
+              <a:t> über Framenummer</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$40:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$40:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1693705988362009E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27052603405912112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1313224211427244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91018920491504263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0595893888857577</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4603169851436553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4460052852773027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6210618092523328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3941690064930699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6427038919770638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B325-4F42-AF38-172378A576FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2064657072"/>
+        <c:axId val="316342912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2064657072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Framenummer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316342912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="316342912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>WInkelgeschwindigkeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064657072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -555,7 +1670,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1321,6 +3548,78 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>370225</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>91543</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5D8B4F-4AFD-E0EF-0E65-1FF7BBEE9134}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>410307</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>20516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>117230</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>96716</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FB6969B-E2A0-C4CF-2F77-CDD8609AD9AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1587,13 +3886,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1774,19 +4073,217 @@
         <v>98.274445357436321</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f>D40*(PI()/180)</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <f>D40+0.67</f>
+        <v>0.67</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:E50" si="1">D41*(PI()/180)</f>
+        <v>1.1693705988362009E-2</v>
+      </c>
+      <c r="F41">
+        <f>E41-E40</f>
+        <v>1.1693705988362009E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <f>D41+15.5</f>
+        <v>16.170000000000002</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0.28221974004748313</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:F50" si="2">E42-E41</f>
+        <v>0.27052603405912112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <f>64.82+D42</f>
+        <v>80.989999999999995</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>1.4135421611902075</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>1.1313224211427244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <f>52.15+D43</f>
+        <v>133.13999999999999</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>2.3237313661052501</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>0.91018920491504263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <f>60.71+D44</f>
+        <v>193.85</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>3.3833207549910078</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>1.0595893888857577</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>30</v>
+      </c>
+      <c r="D46">
+        <f>83.67+D45</f>
+        <v>277.52</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>4.8436377401346631</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>1.4603169851436553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>35</v>
+      </c>
+      <c r="D47">
+        <f>82.85+D46</f>
+        <v>360.37</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>6.2896430254119657</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>1.4460052852773027</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <f>92.88+D47</f>
+        <v>453.25</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>7.9107048346642985</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>1.6210618092523328</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>45</v>
+      </c>
+      <c r="D49">
+        <f>79.88+D48</f>
+        <v>533.13</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>9.3048738411573684</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>1.3941690064930699</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <f>94.12+D49</f>
+        <v>627.25</v>
+      </c>
+      <c r="E50">
+        <f>D50*(PI()/180)</f>
+        <v>10.947577733134432</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>1.6427038919770638</v>
       </c>
     </row>
   </sheetData>

--- a/Experimente.xlsx
+++ b/Experimente.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrill Marti\Desktop\PhysikLaborMotoren\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrill.Marti\Desktop\PhysikLaborMotoren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0A1082-D1BA-47E0-A82E-680C6E0950E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BE1658-E02A-408C-AD42-CB50D96FBC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Exp. 1</t>
   </si>
@@ -103,6 +103,18 @@
   <si>
     <t>deltas (rad)</t>
   </si>
+  <si>
+    <t>omega (rad/frame)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Exp. 4</t>
+  </si>
+  <si>
+    <t>Drehmoment</t>
+  </si>
 </sst>
 </file>
 
@@ -162,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -180,7 +192,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -247,7 +259,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -422,7 +434,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CH"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -460,7 +472,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1179304975"/>
@@ -545,7 +557,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CH"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -583,7 +595,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="991709903"/>
@@ -631,7 +643,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -645,7 +657,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -714,7 +726,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -923,7 +935,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CH"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -961,7 +973,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="316344400"/>
@@ -1040,7 +1052,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CH"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1078,7 +1090,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="314284672"/>
@@ -1126,7 +1138,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1140,7 +1152,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1207,7 +1219,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1220,8 +1232,49 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$40:$C$50</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1286,7 +1339,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$F$40:$F$50</c:f>
+              <c:f>Tabelle1!$G$40:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1294,34 +1347,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1693705988362009E-2</c:v>
+                  <c:v>2.338741197672402E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27052603405912112</c:v>
+                  <c:v>5.4105206811824222E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1313224211427244</c:v>
+                  <c:v>0.22626448422854489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91018920491504263</c:v>
+                  <c:v>0.18203784098300851</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0595893888857577</c:v>
+                  <c:v>0.21191787777715154</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4603169851436553</c:v>
+                  <c:v>0.29206339702873108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4460052852773027</c:v>
+                  <c:v>0.28920105705546051</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6210618092523328</c:v>
+                  <c:v>0.32421236185046653</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3941690064930699</c:v>
+                  <c:v>0.27883380129861396</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6427038919770638</c:v>
+                  <c:v>0.32854077839541274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,7 +1382,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B325-4F42-AF38-172378A576FF}"/>
+              <c16:uniqueId val="{00000000-42CA-4B98-832C-84DE39CF5554}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1416,7 +1469,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CH"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1454,7 +1507,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="316342912"/>
@@ -1533,7 +1586,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CH"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1571,7 +1624,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2064657072"/>
@@ -1619,7 +1672,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3551,13 +3604,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>34050</xdr:colOff>
+      <xdr:colOff>596025</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>15343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>370225</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>322600</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>91543</xdr:rowOff>
     </xdr:to>
@@ -3586,14 +3639,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>410307</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>362682</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>20516</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>117230</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>69605</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>96716</xdr:rowOff>
     </xdr:to>
@@ -3886,13 +3939,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4073,17 +4126,17 @@
         <v>98.274445357436321</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>24</v>
       </c>
@@ -4099,8 +4152,11 @@
       <c r="F39" t="s">
         <v>21</v>
       </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>0</v>
       </c>
@@ -4115,8 +4171,12 @@
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="G40">
+        <f>F40/5</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>5</v>
       </c>
@@ -4125,15 +4185,19 @@
         <v>0.67</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41:E50" si="1">D41*(PI()/180)</f>
+        <f t="shared" ref="E41:E49" si="1">D41*(PI()/180)</f>
         <v>1.1693705988362009E-2</v>
       </c>
       <c r="F41">
         <f>E41-E40</f>
         <v>1.1693705988362009E-2</v>
       </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G50" si="2">F41/5</f>
+        <v>2.338741197672402E-3</v>
+      </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>10</v>
       </c>
@@ -4146,11 +4210,15 @@
         <v>0.28221974004748313</v>
       </c>
       <c r="F42">
-        <f t="shared" ref="F42:F50" si="2">E42-E41</f>
+        <f t="shared" ref="F42:F50" si="3">E42-E41</f>
         <v>0.27052603405912112</v>
       </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>5.4105206811824222E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>15</v>
       </c>
@@ -4163,11 +4231,15 @@
         <v>1.4135421611902075</v>
       </c>
       <c r="F43">
+        <f t="shared" si="3"/>
+        <v>1.1313224211427244</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="2"/>
-        <v>1.1313224211427244</v>
+        <v>0.22626448422854489</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>20</v>
       </c>
@@ -4180,11 +4252,15 @@
         <v>2.3237313661052501</v>
       </c>
       <c r="F44">
+        <f t="shared" si="3"/>
+        <v>0.91018920491504263</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="2"/>
-        <v>0.91018920491504263</v>
+        <v>0.18203784098300851</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>25</v>
       </c>
@@ -4197,11 +4273,15 @@
         <v>3.3833207549910078</v>
       </c>
       <c r="F45">
+        <f t="shared" si="3"/>
+        <v>1.0595893888857577</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="2"/>
-        <v>1.0595893888857577</v>
+        <v>0.21191787777715154</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>30</v>
       </c>
@@ -4214,11 +4294,15 @@
         <v>4.8436377401346631</v>
       </c>
       <c r="F46">
+        <f t="shared" si="3"/>
+        <v>1.4603169851436553</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="2"/>
-        <v>1.4603169851436553</v>
+        <v>0.29206339702873108</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>35</v>
       </c>
@@ -4231,11 +4315,15 @@
         <v>6.2896430254119657</v>
       </c>
       <c r="F47">
+        <f t="shared" si="3"/>
+        <v>1.4460052852773027</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="2"/>
-        <v>1.4460052852773027</v>
+        <v>0.28920105705546051</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>40</v>
       </c>
@@ -4248,11 +4336,15 @@
         <v>7.9107048346642985</v>
       </c>
       <c r="F48">
+        <f t="shared" si="3"/>
+        <v>1.6210618092523328</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="2"/>
-        <v>1.6210618092523328</v>
+        <v>0.32421236185046653</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>45</v>
       </c>
@@ -4265,11 +4357,15 @@
         <v>9.3048738411573684</v>
       </c>
       <c r="F49">
+        <f t="shared" si="3"/>
+        <v>1.3941690064930699</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="2"/>
-        <v>1.3941690064930699</v>
+        <v>0.27883380129861396</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>50</v>
       </c>
@@ -4282,8 +4378,50 @@
         <v>10.947577733134432</v>
       </c>
       <c r="F50">
+        <f t="shared" si="3"/>
+        <v>1.6427038919770638</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="2"/>
-        <v>1.6427038919770638</v>
+        <v>0.32854077839541274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Experimente.xlsx
+++ b/Experimente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrill.Marti\Desktop\PhysikLaborMotoren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BE1658-E02A-408C-AD42-CB50D96FBC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D152ABEF-82AE-4D7B-B05F-FB67BDC28735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Exp. 1</t>
   </si>
@@ -110,10 +110,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Exp. 4</t>
+    <t>Angle(deg)</t>
   </si>
   <si>
-    <t>Drehmoment</t>
+    <t>Angle(rad)</t>
   </si>
 </sst>
 </file>
@@ -739,9 +739,14 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Run1_24</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -849,6 +854,369 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7150-471F-A701-903C522ED2E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Run2_24</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$55:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$55:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10716321607245183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29077185338225531</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56566121057136209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5940092058464213</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8120744908132638</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3577380763794418</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1430353682444423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9072141761603101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7007145155096843</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.669794977609687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AC83-46B4-B0E7-802681810107}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Run1_30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$69:$C$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$69:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2689280275926284E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1937315469713706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97040306410884725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4513149344260357</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2938590257564488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2035982932886453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4753188476844645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.015471041037012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.733123219317383</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.172395381904657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AC83-46B4-B0E7-802681810107}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Run2_30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$84:$C$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$84:$E$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12426744274199626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61051617234761646</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6866861891273199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2424726843550649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4234361176471788</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6960293366689951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.017317241821454</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.404128655316452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.832056177765763</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.753911878529468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AC83-46B4-B0E7-802681810107}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3603,16 +3971,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>596025</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>15343</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38132</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>322600</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>91543</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3639,16 +4007,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>362682</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>20516</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>88938</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>96556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>69605</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>96716</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>400979</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>172756</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3939,10 +4307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4390,18 +4758,471 @@
       <c r="A54">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>D55*(PI()/180)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <f>D55+6.14</f>
+        <v>6.14</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56:E65" si="4">D56*(PI()/180)</f>
+        <v>0.10716321607245183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <f>D56+10.52</f>
+        <v>16.66</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>0.29077185338225531</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <f>D57+15.75</f>
+        <v>32.409999999999997</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>0.56566121057136209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <f>D58+58.92</f>
+        <v>91.33</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>1.5940092058464213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <f>D59+69.79</f>
+        <v>161.12</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="4"/>
+        <v>2.8120744908132638</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <f>D60+88.56</f>
+        <v>249.68</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>4.3577380763794418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>35</v>
+      </c>
+      <c r="D62">
+        <f>D61+102.29</f>
+        <v>351.97</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="4"/>
+        <v>6.1430353682444423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>40</v>
+      </c>
+      <c r="D63">
+        <f>D62+101.08</f>
+        <v>453.05</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>7.9072141761603101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>45</v>
+      </c>
+      <c r="D64">
+        <f>D63+102.76</f>
+        <v>555.81000000000006</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="4"/>
+        <v>9.7007145155096843</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>50</v>
+      </c>
+      <c r="D65">
+        <f>D64+112.82</f>
+        <v>668.63000000000011</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="4"/>
+        <v>11.669794977609687</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>30</v>
       </c>
       <c r="B68" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f>D69*(PI()/180)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <f>D69+1.3</f>
+        <v>1.3</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ref="E70:E79" si="5">D70*(PI()/180)</f>
+        <v>2.2689280275926284E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <f>D70+9.8</f>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>0.1937315469713706</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <f>D71+44.5</f>
+        <v>55.6</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>0.97040306410884725</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <f>D72+84.85</f>
+        <v>140.44999999999999</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="5"/>
+        <v>2.4513149344260357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>25</v>
+      </c>
+      <c r="D74">
+        <f>D73+105.57</f>
+        <v>246.01999999999998</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>4.2938590257564488</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>30</v>
+      </c>
+      <c r="D75">
+        <f>D74+109.42</f>
+        <v>355.44</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="5"/>
+        <v>6.2035982932886453</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>35</v>
+      </c>
+      <c r="D76">
+        <f>D75+130.16</f>
+        <v>485.6</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>8.4753188476844645</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>40</v>
+      </c>
+      <c r="D77">
+        <f>D76+145.54</f>
+        <v>631.14</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="5"/>
+        <v>11.015471041037012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>45</v>
+      </c>
+      <c r="D78">
+        <f>D77+155.71</f>
+        <v>786.85</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
+        <v>13.733123219317383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>50</v>
+      </c>
+      <c r="D79">
+        <f>D78+139.76</f>
+        <v>926.61</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="5"/>
+        <v>16.172395381904657</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>30</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f>D84*(PI()/180)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <f>D84+7.12</f>
+        <v>7.12</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ref="E85:E94" si="6">D85*(PI()/180)</f>
+        <v>0.12426744274199626</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <f>D85+27.86</f>
+        <v>34.979999999999997</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="6"/>
+        <v>0.61051617234761646</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <f>D86+61.66</f>
+        <v>96.639999999999986</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="6"/>
+        <v>1.6866861891273199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <f>D87+89.14</f>
+        <v>185.77999999999997</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="6"/>
+        <v>3.2424726843550649</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>25</v>
+      </c>
+      <c r="D89">
+        <f>D88+124.96</f>
+        <v>310.73999999999995</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="6"/>
+        <v>5.4234361176471788</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>30</v>
+      </c>
+      <c r="D90">
+        <f>D89+130.21</f>
+        <v>440.94999999999993</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="6"/>
+        <v>7.6960293366689951</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>35</v>
+      </c>
+      <c r="D91">
+        <f>D90+133</f>
+        <v>573.94999999999993</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="6"/>
+        <v>10.017317241821454</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>40</v>
+      </c>
+      <c r="D92">
+        <f>D91+194.05</f>
+        <v>768</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="6"/>
+        <v>13.404128655316452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>45</v>
+      </c>
+      <c r="D93">
+        <f>D92+139.11</f>
+        <v>907.11</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="6"/>
+        <v>15.832056177765763</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>50</v>
+      </c>
+      <c r="D94">
+        <f>D93+167.41</f>
+        <v>1074.52</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="6"/>
+        <v>18.753911878529468</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
@@ -4412,16 +5233,6 @@
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Experimente.xlsx
+++ b/Experimente.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrill.Marti\Desktop\PhysikLaborMotoren\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrill Marti\Desktop\PhysikLaborMotoren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D152ABEF-82AE-4D7B-B05F-FB67BDC28735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EA09EF-B836-4FC0-B480-352BE76C2E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Exp. 1</t>
   </si>
@@ -115,12 +115,33 @@
   <si>
     <t>Angle(rad)</t>
   </si>
+  <si>
+    <t>Frame-Number</t>
+  </si>
+  <si>
+    <t>Angle (degrees)</t>
+  </si>
+  <si>
+    <t>2,79</t>
+  </si>
+  <si>
+    <t>Time (ms)</t>
+  </si>
+  <si>
+    <t>Winkelposition (rad)</t>
+  </si>
+  <si>
+    <t>Winkelgeschwindigkeit (rad/ms)</t>
+  </si>
+  <si>
+    <t>Winkelbeschleunigung (rad/ms^2)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +149,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +189,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -164,17 +204,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -192,7 +236,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -259,7 +303,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -434,7 +478,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -472,7 +516,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1179304975"/>
@@ -557,7 +601,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -595,7 +639,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="991709903"/>
@@ -643,7 +687,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -657,7 +701,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -675,7 +719,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -688,16 +732,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-CH" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Winkelposition über Framenummer</a:t>
+              <a:rPr lang="de-CH" sz="3200"/>
+              <a:t>Anfahrkurven</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" sz="3200" baseline="0"/>
+              <a:t> (Position über Zeit)</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH" sz="3200"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -714,7 +756,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -726,7 +768,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -734,7 +776,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -768,7 +810,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$40:$C$50</c:f>
+              <c:f>Tabelle1!$I$40:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -776,41 +818,41 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>2.083333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>4.1666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>8.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>10.416666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>14.583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>16.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>20.833333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$40:$E$50</c:f>
+              <c:f>Tabelle1!$J$40:$J$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -850,10 +892,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7150-471F-A701-903C522ED2E0}"/>
+              <c16:uniqueId val="{00000000-B622-4C54-97C8-914B54EE57FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -889,7 +931,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$55:$C$65</c:f>
+              <c:f>Tabelle1!$I$55:$I$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -897,41 +939,41 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>2.083333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>4.1666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>8.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>10.416666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>14.583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>16.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>20.833333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$55:$E$65</c:f>
+              <c:f>Tabelle1!$J$55:$J$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -971,10 +1013,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AC83-46B4-B0E7-802681810107}"/>
+              <c16:uniqueId val="{00000001-B622-4C54-97C8-914B54EE57FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1010,7 +1052,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$69:$C$79</c:f>
+              <c:f>Tabelle1!$I$69:$I$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1018,41 +1060,41 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>2.083333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>4.1666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>8.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>10.416666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>14.583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>16.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>20.833333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$69:$E$79</c:f>
+              <c:f>Tabelle1!$J$69:$J$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1092,10 +1134,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-AC83-46B4-B0E7-802681810107}"/>
+              <c16:uniqueId val="{00000002-B622-4C54-97C8-914B54EE57FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1131,7 +1173,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$84:$C$94</c:f>
+              <c:f>Tabelle1!$I$84:$I$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1139,41 +1181,41 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>2.083333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>4.1666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>8.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>10.416666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>14.583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>16.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>20.833333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$84:$E$94</c:f>
+              <c:f>Tabelle1!$J$84:$J$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1213,10 +1255,252 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-AC83-46B4-B0E7-802681810107}"/>
+              <c16:uniqueId val="{00000003-B622-4C54-97C8-914B54EE57FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Run1_35</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$99:$I$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$99:$J$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8694686000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59149208399999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05844132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1130429150000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8149871299999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4139569190000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.032897119999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.89855322</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.095895540000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.9067483</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B622-4C54-97C8-914B54EE57FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Run2_35</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$112:$I$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$112:$J$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38641589599999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3121385320000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8017770479999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.140343713</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5358081109999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.32641505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.23308639</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.964352140000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.319573089999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.134963710000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B622-4C54-97C8-914B54EE57FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1228,11 +1512,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="314284672"/>
-        <c:axId val="316344400"/>
+        <c:axId val="1143616751"/>
+        <c:axId val="1138504207"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="314284672"/>
+        <c:axId val="1143616751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1259,7 +1543,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1272,9 +1556,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH"/>
-                  <a:t>Framenummer</a:t>
+                  <a:rPr lang="de-CH" sz="2000"/>
+                  <a:t>Zeit</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH" sz="2000" baseline="0"/>
+                  <a:t> [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-CH" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1291,7 +1580,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1303,7 +1592,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1329,7 +1618,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1341,17 +1630,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316344400"/>
+        <c:crossAx val="1138504207"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316344400"/>
+        <c:axId val="1138504207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1376,7 +1666,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1389,9 +1679,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH"/>
-                  <a:t>Winkeposition (rad)</a:t>
+                  <a:rPr lang="de-CH" sz="2000"/>
+                  <a:t>Winkeldistnaz</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH" sz="2000" baseline="0"/>
+                  <a:t> [rad]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-CH" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1408,7 +1703,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1420,7 +1715,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1446,7 +1741,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1458,10 +1753,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314284672"/>
+        <c:crossAx val="1143616751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1473,6 +1768,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1506,7 +1832,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1520,7 +1846,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1530,6 +1856,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1538,7 +1865,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1551,14 +1878,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-CH"/>
-              <a:t>Winkelgeschwindigkeit</a:t>
+              <a:rPr lang="de-CH" sz="3200"/>
+              <a:t>Anfahrkurven</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="de-CH" baseline="0"/>
-              <a:t> über Framenummer</a:t>
+              <a:rPr lang="de-CH" sz="3200" baseline="0"/>
+              <a:t> (Geschwindigkeit über Zeit)</a:t>
             </a:r>
-            <a:endParaRPr lang="de-CH"/>
+            <a:endParaRPr lang="de-CH" sz="3200"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1575,7 +1902,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1587,7 +1914,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1595,55 +1922,19 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$C$40:$C$50</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Run1_24</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1665,7 +1956,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$40:$C$50</c:f>
+              <c:f>Tabelle1!$I$40:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1673,41 +1964,41 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>2.083333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>4.1666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>8.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>10.416666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>14.583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>16.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>20.833333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$G$40:$G$50</c:f>
+              <c:f>Tabelle1!$K$40:$K$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1715,34 +2006,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.338741197672402E-3</c:v>
+                  <c:v>5.6129788744137647E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4105206811824222E-2</c:v>
+                  <c:v>0.12985249634837817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22626448422854489</c:v>
+                  <c:v>0.54303476214850754</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18203784098300851</c:v>
+                  <c:v>0.43689081835922072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21191787777715154</c:v>
+                  <c:v>0.50860290666516317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29206339702873108</c:v>
+                  <c:v>0.70095215286895496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28920105705546051</c:v>
+                  <c:v>0.69408253693310507</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.32421236185046653</c:v>
+                  <c:v>0.77810966844112084</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27883380129861396</c:v>
+                  <c:v>0.66920112311667279</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32854077839541274</c:v>
+                  <c:v>0.7884978681489897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1750,7 +2041,636 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-42CA-4B98-832C-84DE39CF5554}"/>
+              <c16:uniqueId val="{00000006-4C77-441E-9783-832186C5A11F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Run2_24</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-4C77-441E-9783-832186C5A11F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$55:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$55:$K$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1438343714776888E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8132145908705689E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13194689145077121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49360703773202869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58467133678408378</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74191852107176581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85694270009520002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84680582779961777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86088016288769864</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94515862180800014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4C77-441E-9783-832186C5A11F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Run1_30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$69:$I$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$69:$K$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0890854532444618E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2100288013813277E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37280232822598869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71083769775225081</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88442116383859737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91667484841545488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0904258661099928</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2192730528092244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3044730455745766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1708506380418904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4C77-441E-9783-832186C5A11F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Run2_30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$84:$I$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$84:$K$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9648372516158212E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23339939021069772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51656160805425755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.746777517709318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0468624479802136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0908447451304724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1142181944731799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6256694784776013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1654052107756678</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4024907363665771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-4C77-441E-9783-832186C5A11F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Run1_35</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$99:$I$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$99:$K$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3373449280000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26054275104000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70413563327999984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9862087656000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2969332231999982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2475054987200012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7370912964799992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3755149280000023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0147243135999982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3492093247999983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-4C77-441E-9783-832186C5A11F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Run2_35</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$112:$I$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$112:$K$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18547963008000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44434686528000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71502648767999977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1225119992000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1498229110399985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3394913307200007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3952022432</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.311007560000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6105060559999971</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3513874975999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-4C77-441E-9783-832186C5A11F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1762,11 +2682,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2064657072"/>
-        <c:axId val="316342912"/>
+        <c:axId val="1143616751"/>
+        <c:axId val="1138504207"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2064657072"/>
+        <c:axId val="1143616751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1793,7 +2713,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1806,9 +2726,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH"/>
-                  <a:t>Framenummer</a:t>
+                  <a:rPr lang="de-CH" sz="2000"/>
+                  <a:t>Zeit</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH" sz="2000" baseline="0"/>
+                  <a:t> [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-CH" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1825,7 +2750,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1837,7 +2762,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1863,7 +2788,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1875,15 +2800,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316342912"/>
+        <c:crossAx val="1138504207"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316342912"/>
+        <c:axId val="1138504207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,7 +2835,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1923,9 +2848,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH"/>
-                  <a:t>WInkelgeschwindigkeit</a:t>
+                  <a:rPr lang="de-CH" sz="2000"/>
+                  <a:t>Winkelgeschwindigkeit</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH" sz="2000" baseline="0"/>
+                  <a:t> [rad/ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-CH" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1942,7 +2872,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1954,7 +2884,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1980,7 +2910,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1992,10 +2922,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064657072"/>
+        <c:crossAx val="1143616751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2007,6 +2937,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2040,7 +3001,1152 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH" sz="3200"/>
+              <a:t>Anfahrkurven</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" sz="3200" baseline="0"/>
+              <a:t> (Beschleunigung über Zeit)</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH" sz="3200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Run1_24</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$40:$I$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$40:$L$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6942298597186073E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9634968387502922E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19832748758406205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.0949093018857701E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4421802386852336E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2327638177820109E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.297415649207948E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0333023123847629E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.2276101755735001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.726243761551205E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4723-4D7C-9065-FF04E9AEC21F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Run2_24</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$55:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$55:$L$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4690404983092908E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7613025053085828E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1031077860191445E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1735968702150037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3710863544986399E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5478648458087411E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5211605931248402E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.8656987018794841E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7556808422788092E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0453660281744672E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4723-4D7C-9065-FF04E9AEC21F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Run1_30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$69:$I$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$69:$L$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2276101755734175E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4180528071056961E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13953697930184414</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16225697737260592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.332006372144625E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5481768596891614E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.340048849337818E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1846649615631237E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0895996527369E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.4138755615689283E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4723-4D7C-9065-FF04E9AEC21F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Run2_30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$84:$I$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$84:$L$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8631218807755945E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3400488493378985E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13591786456490867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11050363663442908</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1440407665300297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1111502632124239E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1219255684499633E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24549661632212263</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.22092684849692784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11380105228363629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4723-4D7C-9065-FF04E9AEC21F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Run1_35</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$99:$I$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$99:$L$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1219255654400004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11384126484480002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21292458347519985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13539510351360048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1491477396479986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.3725307750398571E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23500118292479896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.17355665687039873</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30682050508799769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.31944719462399956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4723-4D7C-9065-FF04E9AEC21F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Run2_35</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$112:$I$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$112:$L$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9030222438400017E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12425627289600007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12992621875199981</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19559304552960061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.310923768319887E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1040841446401136E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6741237990399638E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.0413447935999103E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1437592780799975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.12437690803199868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4723-4D7C-9065-FF04E9AEC21F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1143616751"/>
+        <c:axId val="1138504207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1143616751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH" sz="2000"/>
+                  <a:t>Zeit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH" sz="2000" baseline="0"/>
+                  <a:t> [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-CH" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138504207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1138504207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH" sz="2000"/>
+                  <a:t>Winkelbeschleunigung</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH" sz="2000" baseline="0"/>
+                  <a:t> [rad/ms^2]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-CH" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143616751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2171,6 +4277,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3204,6 +5350,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3971,23 +6633,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38132</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28951</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>387803</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:rowOff>24494</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5D8B4F-4AFD-E0EF-0E65-1FF7BBEE9134}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8535E303-E29B-0B2F-0391-365F44995AFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4007,27 +6669,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>88938</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>96556</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>400979</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>172756</xdr:rowOff>
+      <xdr:colOff>401410</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>119744</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FB6969B-E2A0-C4CF-2F77-CDD8609AD9AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{356C8ADF-96D8-414E-8760-5023D4374A4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4036,6 +6700,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0B6C51-824B-4C51-911B-DC784E5A4C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4305,15 +7007,519 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4494,17 +7700,17 @@
         <v>98.274445357436321</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>24</v>
       </c>
@@ -4523,8 +7729,20 @@
       <c r="G39" t="s">
         <v>22</v>
       </c>
+      <c r="I39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>0</v>
       </c>
@@ -4543,8 +7761,22 @@
         <f>F40/5</f>
         <v>0</v>
       </c>
+      <c r="I40" s="5">
+        <f>C40/240 * 100</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <f>E40</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>5</v>
       </c>
@@ -4564,8 +7796,24 @@
         <f t="shared" ref="G41:G50" si="2">F41/5</f>
         <v>2.338741197672402E-3</v>
       </c>
+      <c r="I41" s="5">
+        <f t="shared" ref="I41:I50" si="3">C41/240 * 100</f>
+        <v>2.083333333333333</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" ref="J41:J50" si="4">E41</f>
+        <v>1.1693705988362009E-2</v>
+      </c>
+      <c r="K41" s="5">
+        <f>(J41-J40)/(I41-I40)</f>
+        <v>5.6129788744137647E-3</v>
+      </c>
+      <c r="L41" s="5">
+        <f>(K41-K40)/(I41-I40)</f>
+        <v>2.6942298597186073E-3</v>
+      </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>10</v>
       </c>
@@ -4578,15 +7826,31 @@
         <v>0.28221974004748313</v>
       </c>
       <c r="F42">
-        <f t="shared" ref="F42:F50" si="3">E42-E41</f>
+        <f t="shared" ref="F42:F50" si="5">E42-E41</f>
         <v>0.27052603405912112</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
         <v>5.4105206811824222E-2</v>
       </c>
+      <c r="I42" s="5">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="4"/>
+        <v>0.28221974004748313</v>
+      </c>
+      <c r="K42" s="5">
+        <f t="shared" ref="K42:K50" si="6">(J42-J41)/(I42-I41)</f>
+        <v>0.12985249634837817</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" ref="L42:L50" si="7">(K42-K41)/(I42-I41)</f>
+        <v>5.9634968387502922E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>15</v>
       </c>
@@ -4599,15 +7863,31 @@
         <v>1.4135421611902075</v>
       </c>
       <c r="F43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1313224211427244</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
         <v>0.22626448422854489</v>
       </c>
+      <c r="I43" s="5">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4135421611902075</v>
+      </c>
+      <c r="K43" s="5">
+        <f t="shared" si="6"/>
+        <v>0.54303476214850754</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="7"/>
+        <v>0.19832748758406205</v>
+      </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>20</v>
       </c>
@@ -4620,15 +7900,31 @@
         <v>2.3237313661052501</v>
       </c>
       <c r="F44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.91018920491504263</v>
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
         <v>0.18203784098300851</v>
       </c>
+      <c r="I44" s="5">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="4"/>
+        <v>2.3237313661052501</v>
+      </c>
+      <c r="K44" s="5">
+        <f t="shared" si="6"/>
+        <v>0.43689081835922072</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="7"/>
+        <v>-5.0949093018857701E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>25</v>
       </c>
@@ -4641,15 +7937,31 @@
         <v>3.3833207549910078</v>
       </c>
       <c r="F45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0595893888857577</v>
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
         <v>0.21191787777715154</v>
       </c>
+      <c r="I45" s="5">
+        <f t="shared" si="3"/>
+        <v>10.416666666666668</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="4"/>
+        <v>3.3833207549910078</v>
+      </c>
+      <c r="K45" s="5">
+        <f t="shared" si="6"/>
+        <v>0.50860290666516317</v>
+      </c>
+      <c r="L45" s="5">
+        <f t="shared" si="7"/>
+        <v>3.4421802386852336E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>30</v>
       </c>
@@ -4662,15 +7974,31 @@
         <v>4.8436377401346631</v>
       </c>
       <c r="F46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4603169851436553</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
         <v>0.29206339702873108</v>
       </c>
+      <c r="I46" s="5">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="4"/>
+        <v>4.8436377401346631</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" si="6"/>
+        <v>0.70095215286895496</v>
+      </c>
+      <c r="L46" s="5">
+        <f t="shared" si="7"/>
+        <v>9.2327638177820109E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>35</v>
       </c>
@@ -4683,15 +8011,31 @@
         <v>6.2896430254119657</v>
       </c>
       <c r="F47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4460052852773027</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
         <v>0.28920105705546051</v>
       </c>
+      <c r="I47" s="5">
+        <f t="shared" si="3"/>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="4"/>
+        <v>6.2896430254119657</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="6"/>
+        <v>0.69408253693310507</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.297415649207948E-3</v>
+      </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>40</v>
       </c>
@@ -4704,15 +8048,31 @@
         <v>7.9107048346642985</v>
       </c>
       <c r="F48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6210618092523328</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
         <v>0.32421236185046653</v>
       </c>
+      <c r="I48" s="5">
+        <f t="shared" si="3"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="4"/>
+        <v>7.9107048346642985</v>
+      </c>
+      <c r="K48" s="5">
+        <f t="shared" si="6"/>
+        <v>0.77810966844112084</v>
+      </c>
+      <c r="L48" s="5">
+        <f t="shared" si="7"/>
+        <v>4.0333023123847629E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>45</v>
       </c>
@@ -4725,15 +8085,31 @@
         <v>9.3048738411573684</v>
       </c>
       <c r="F49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3941690064930699</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
         <v>0.27883380129861396</v>
       </c>
+      <c r="I49" s="5">
+        <f t="shared" si="3"/>
+        <v>18.75</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="4"/>
+        <v>9.3048738411573684</v>
+      </c>
+      <c r="K49" s="5">
+        <f t="shared" si="6"/>
+        <v>0.66920112311667279</v>
+      </c>
+      <c r="L49" s="5">
+        <f t="shared" si="7"/>
+        <v>-5.2276101755735001E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>50</v>
       </c>
@@ -4746,15 +8122,31 @@
         <v>10.947577733134432</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6427038919770638</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
         <v>0.32854077839541274</v>
       </c>
+      <c r="I50" s="5">
+        <f t="shared" si="3"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="4"/>
+        <v>10.947577733134432</v>
+      </c>
+      <c r="K50" s="5">
+        <f t="shared" si="6"/>
+        <v>0.7884978681489897</v>
+      </c>
+      <c r="L50" s="5">
+        <f t="shared" si="7"/>
+        <v>5.726243761551205E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>24</v>
       </c>
@@ -4767,8 +8159,20 @@
       <c r="E54" t="s">
         <v>25</v>
       </c>
+      <c r="I54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>0</v>
       </c>
@@ -4779,8 +8183,22 @@
         <f>D55*(PI()/180)</f>
         <v>0</v>
       </c>
+      <c r="I55" s="5">
+        <f>C55/240 * 100</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
+        <f>E55</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>5</v>
       </c>
@@ -4789,11 +8207,27 @@
         <v>6.14</v>
       </c>
       <c r="E56">
-        <f t="shared" ref="E56:E65" si="4">D56*(PI()/180)</f>
+        <f t="shared" ref="E56:E65" si="8">D56*(PI()/180)</f>
         <v>0.10716321607245183</v>
       </c>
+      <c r="I56" s="5">
+        <f t="shared" ref="I56:I65" si="9">C56/240 * 100</f>
+        <v>2.083333333333333</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" ref="J56:J65" si="10">E56</f>
+        <v>0.10716321607245183</v>
+      </c>
+      <c r="K56" s="5">
+        <f>(J56-J55)/(I56-I55)</f>
+        <v>5.1438343714776888E-2</v>
+      </c>
+      <c r="L56" s="5">
+        <f>(K56-K55)/(I56-I55)</f>
+        <v>2.4690404983092908E-2</v>
+      </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>10</v>
       </c>
@@ -4802,11 +8236,27 @@
         <v>16.66</v>
       </c>
       <c r="E57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.29077185338225531</v>
       </c>
+      <c r="I57" s="5">
+        <f t="shared" si="9"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="J57" s="5">
+        <f t="shared" si="10"/>
+        <v>0.29077185338225531</v>
+      </c>
+      <c r="K57" s="5">
+        <f t="shared" ref="K57:K65" si="11">(J57-J56)/(I57-I56)</f>
+        <v>8.8132145908705689E-2</v>
+      </c>
+      <c r="L57" s="5">
+        <f t="shared" ref="L57:L65" si="12">(K57-K56)/(I57-I56)</f>
+        <v>1.7613025053085828E-2</v>
+      </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>15</v>
       </c>
@@ -4815,11 +8265,27 @@
         <v>32.409999999999997</v>
       </c>
       <c r="E58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.56566121057136209</v>
       </c>
+      <c r="I58" s="5">
+        <f t="shared" si="9"/>
+        <v>6.25</v>
+      </c>
+      <c r="J58" s="5">
+        <f t="shared" si="10"/>
+        <v>0.56566121057136209</v>
+      </c>
+      <c r="K58" s="5">
+        <f t="shared" si="11"/>
+        <v>0.13194689145077121</v>
+      </c>
+      <c r="L58" s="5">
+        <f t="shared" si="12"/>
+        <v>2.1031077860191445E-2</v>
+      </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>20</v>
       </c>
@@ -4828,11 +8294,27 @@
         <v>91.33</v>
       </c>
       <c r="E59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5940092058464213</v>
       </c>
+      <c r="I59" s="5">
+        <f t="shared" si="9"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="J59" s="5">
+        <f t="shared" si="10"/>
+        <v>1.5940092058464213</v>
+      </c>
+      <c r="K59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.49360703773202869</v>
+      </c>
+      <c r="L59" s="5">
+        <f t="shared" si="12"/>
+        <v>0.1735968702150037</v>
+      </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>25</v>
       </c>
@@ -4841,11 +8323,27 @@
         <v>161.12</v>
       </c>
       <c r="E60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.8120744908132638</v>
       </c>
+      <c r="I60" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666668</v>
+      </c>
+      <c r="J60" s="5">
+        <f t="shared" si="10"/>
+        <v>2.8120744908132638</v>
+      </c>
+      <c r="K60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.58467133678408378</v>
+      </c>
+      <c r="L60" s="5">
+        <f t="shared" si="12"/>
+        <v>4.3710863544986399E-2</v>
+      </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>30</v>
       </c>
@@ -4854,11 +8352,27 @@
         <v>249.68</v>
       </c>
       <c r="E61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.3577380763794418</v>
       </c>
+      <c r="I61" s="5">
+        <f t="shared" si="9"/>
+        <v>12.5</v>
+      </c>
+      <c r="J61" s="5">
+        <f t="shared" si="10"/>
+        <v>4.3577380763794418</v>
+      </c>
+      <c r="K61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.74191852107176581</v>
+      </c>
+      <c r="L61" s="5">
+        <f t="shared" si="12"/>
+        <v>7.5478648458087411E-2</v>
+      </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>35</v>
       </c>
@@ -4867,11 +8381,27 @@
         <v>351.97</v>
       </c>
       <c r="E62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.1430353682444423</v>
       </c>
+      <c r="I62" s="5">
+        <f t="shared" si="9"/>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="J62" s="5">
+        <f t="shared" si="10"/>
+        <v>6.1430353682444423</v>
+      </c>
+      <c r="K62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.85694270009520002</v>
+      </c>
+      <c r="L62" s="5">
+        <f t="shared" si="12"/>
+        <v>5.5211605931248402E-2</v>
+      </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>40</v>
       </c>
@@ -4880,11 +8410,27 @@
         <v>453.05</v>
       </c>
       <c r="E63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.9072141761603101</v>
       </c>
+      <c r="I63" s="5">
+        <f t="shared" si="9"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="J63" s="5">
+        <f t="shared" si="10"/>
+        <v>7.9072141761603101</v>
+      </c>
+      <c r="K63" s="5">
+        <f t="shared" si="11"/>
+        <v>0.84680582779961777</v>
+      </c>
+      <c r="L63" s="5">
+        <f t="shared" si="12"/>
+        <v>-4.8656987018794841E-3</v>
+      </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>45</v>
       </c>
@@ -4893,11 +8439,27 @@
         <v>555.81000000000006</v>
       </c>
       <c r="E64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.7007145155096843</v>
       </c>
+      <c r="I64" s="5">
+        <f t="shared" si="9"/>
+        <v>18.75</v>
+      </c>
+      <c r="J64" s="5">
+        <f t="shared" si="10"/>
+        <v>9.7007145155096843</v>
+      </c>
+      <c r="K64" s="5">
+        <f t="shared" si="11"/>
+        <v>0.86088016288769864</v>
+      </c>
+      <c r="L64" s="5">
+        <f t="shared" si="12"/>
+        <v>6.7556808422788092E-3</v>
+      </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>50</v>
       </c>
@@ -4906,11 +8468,27 @@
         <v>668.63000000000011</v>
       </c>
       <c r="E65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.669794977609687</v>
       </c>
+      <c r="I65" s="5">
+        <f t="shared" si="9"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="J65" s="5">
+        <f t="shared" si="10"/>
+        <v>11.669794977609687</v>
+      </c>
+      <c r="K65" s="5">
+        <f t="shared" si="11"/>
+        <v>0.94515862180800014</v>
+      </c>
+      <c r="L65" s="5">
+        <f t="shared" si="12"/>
+        <v>4.0453660281744672E-2</v>
+      </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>30</v>
       </c>
@@ -4926,8 +8504,20 @@
       <c r="E68" t="s">
         <v>25</v>
       </c>
+      <c r="I68" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>0</v>
       </c>
@@ -4938,8 +8528,22 @@
         <f>D69*(PI()/180)</f>
         <v>0</v>
       </c>
+      <c r="I69" s="5">
+        <f>C69/240 * 100</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <f>E69</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="5">
+        <v>0</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>5</v>
       </c>
@@ -4948,11 +8552,27 @@
         <v>1.3</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:E79" si="5">D70*(PI()/180)</f>
+        <f t="shared" ref="E70:E79" si="13">D70*(PI()/180)</f>
         <v>2.2689280275926284E-2</v>
       </c>
+      <c r="I70" s="5">
+        <f t="shared" ref="I70:I79" si="14">C70/240 * 100</f>
+        <v>2.083333333333333</v>
+      </c>
+      <c r="J70" s="5">
+        <f t="shared" ref="J70:J79" si="15">E70</f>
+        <v>2.2689280275926284E-2</v>
+      </c>
+      <c r="K70" s="5">
+        <f>(J70-J69)/(I70-I69)</f>
+        <v>1.0890854532444618E-2</v>
+      </c>
+      <c r="L70" s="5">
+        <f>(K70-K69)/(I70-I69)</f>
+        <v>5.2276101755734175E-3</v>
+      </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>10</v>
       </c>
@@ -4961,11 +8581,27 @@
         <v>11.100000000000001</v>
       </c>
       <c r="E71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.1937315469713706</v>
       </c>
+      <c r="I71" s="5">
+        <f t="shared" si="14"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="J71" s="5">
+        <f t="shared" si="15"/>
+        <v>0.1937315469713706</v>
+      </c>
+      <c r="K71" s="5">
+        <f t="shared" ref="K71:K79" si="16">(J71-J70)/(I71-I70)</f>
+        <v>8.2100288013813277E-2</v>
+      </c>
+      <c r="L71" s="5">
+        <f t="shared" ref="L71:L79" si="17">(K71-K70)/(I71-I70)</f>
+        <v>3.4180528071056961E-2</v>
+      </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>15</v>
       </c>
@@ -4974,11 +8610,27 @@
         <v>55.6</v>
       </c>
       <c r="E72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.97040306410884725</v>
       </c>
+      <c r="I72" s="5">
+        <f t="shared" si="14"/>
+        <v>6.25</v>
+      </c>
+      <c r="J72" s="5">
+        <f t="shared" si="15"/>
+        <v>0.97040306410884725</v>
+      </c>
+      <c r="K72" s="5">
+        <f t="shared" si="16"/>
+        <v>0.37280232822598869</v>
+      </c>
+      <c r="L72" s="5">
+        <f t="shared" si="17"/>
+        <v>0.13953697930184414</v>
+      </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>20</v>
       </c>
@@ -4987,11 +8639,27 @@
         <v>140.44999999999999</v>
       </c>
       <c r="E73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2.4513149344260357</v>
       </c>
+      <c r="I73" s="5">
+        <f t="shared" si="14"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="J73" s="5">
+        <f t="shared" si="15"/>
+        <v>2.4513149344260357</v>
+      </c>
+      <c r="K73" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71083769775225081</v>
+      </c>
+      <c r="L73" s="5">
+        <f t="shared" si="17"/>
+        <v>0.16225697737260592</v>
+      </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>25</v>
       </c>
@@ -5000,11 +8668,27 @@
         <v>246.01999999999998</v>
       </c>
       <c r="E74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>4.2938590257564488</v>
       </c>
+      <c r="I74" s="5">
+        <f t="shared" si="14"/>
+        <v>10.416666666666668</v>
+      </c>
+      <c r="J74" s="5">
+        <f t="shared" si="15"/>
+        <v>4.2938590257564488</v>
+      </c>
+      <c r="K74" s="5">
+        <f t="shared" si="16"/>
+        <v>0.88442116383859737</v>
+      </c>
+      <c r="L74" s="5">
+        <f t="shared" si="17"/>
+        <v>8.332006372144625E-2</v>
+      </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>30</v>
       </c>
@@ -5013,11 +8697,27 @@
         <v>355.44</v>
       </c>
       <c r="E75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>6.2035982932886453</v>
       </c>
+      <c r="I75" s="5">
+        <f t="shared" si="14"/>
+        <v>12.5</v>
+      </c>
+      <c r="J75" s="5">
+        <f t="shared" si="15"/>
+        <v>6.2035982932886453</v>
+      </c>
+      <c r="K75" s="5">
+        <f t="shared" si="16"/>
+        <v>0.91667484841545488</v>
+      </c>
+      <c r="L75" s="5">
+        <f t="shared" si="17"/>
+        <v>1.5481768596891614E-2</v>
+      </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>35</v>
       </c>
@@ -5026,11 +8726,27 @@
         <v>485.6</v>
       </c>
       <c r="E76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>8.4753188476844645</v>
       </c>
+      <c r="I76" s="5">
+        <f t="shared" si="14"/>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="J76" s="5">
+        <f t="shared" si="15"/>
+        <v>8.4753188476844645</v>
+      </c>
+      <c r="K76" s="5">
+        <f t="shared" si="16"/>
+        <v>1.0904258661099928</v>
+      </c>
+      <c r="L76" s="5">
+        <f t="shared" si="17"/>
+        <v>8.340048849337818E-2</v>
+      </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>40</v>
       </c>
@@ -5039,11 +8755,27 @@
         <v>631.14</v>
       </c>
       <c r="E77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>11.015471041037012</v>
       </c>
+      <c r="I77" s="5">
+        <f t="shared" si="14"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="J77" s="5">
+        <f t="shared" si="15"/>
+        <v>11.015471041037012</v>
+      </c>
+      <c r="K77" s="5">
+        <f t="shared" si="16"/>
+        <v>1.2192730528092244</v>
+      </c>
+      <c r="L77" s="5">
+        <f t="shared" si="17"/>
+        <v>6.1846649615631237E-2</v>
+      </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>45</v>
       </c>
@@ -5052,11 +8784,27 @@
         <v>786.85</v>
       </c>
       <c r="E78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>13.733123219317383</v>
       </c>
+      <c r="I78" s="5">
+        <f t="shared" si="14"/>
+        <v>18.75</v>
+      </c>
+      <c r="J78" s="5">
+        <f t="shared" si="15"/>
+        <v>13.733123219317383</v>
+      </c>
+      <c r="K78" s="5">
+        <f t="shared" si="16"/>
+        <v>1.3044730455745766</v>
+      </c>
+      <c r="L78" s="5">
+        <f t="shared" si="17"/>
+        <v>4.0895996527369E-2</v>
+      </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>50</v>
       </c>
@@ -5065,11 +8813,27 @@
         <v>926.61</v>
       </c>
       <c r="E79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>16.172395381904657</v>
       </c>
+      <c r="I79" s="5">
+        <f t="shared" si="14"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="J79" s="5">
+        <f t="shared" si="15"/>
+        <v>16.172395381904657</v>
+      </c>
+      <c r="K79" s="5">
+        <f t="shared" si="16"/>
+        <v>1.1708506380418904</v>
+      </c>
+      <c r="L79" s="5">
+        <f t="shared" si="17"/>
+        <v>-6.4138755615689283E-2</v>
+      </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>30</v>
       </c>
@@ -5082,8 +8846,20 @@
       <c r="E83" t="s">
         <v>25</v>
       </c>
+      <c r="I83" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>0</v>
       </c>
@@ -5094,8 +8870,22 @@
         <f>D84*(PI()/180)</f>
         <v>0</v>
       </c>
+      <c r="I84" s="5">
+        <f>C84/240 * 100</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="5">
+        <f>E84</f>
+        <v>0</v>
+      </c>
+      <c r="K84" s="5">
+        <v>0</v>
+      </c>
+      <c r="L84" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>5</v>
       </c>
@@ -5104,11 +8894,27 @@
         <v>7.12</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85:E94" si="6">D85*(PI()/180)</f>
+        <f t="shared" ref="E85:E94" si="18">D85*(PI()/180)</f>
         <v>0.12426744274199626</v>
       </c>
+      <c r="I85" s="5">
+        <f t="shared" ref="I85:I94" si="19">C85/240 * 100</f>
+        <v>2.083333333333333</v>
+      </c>
+      <c r="J85" s="5">
+        <f t="shared" ref="J85:J94" si="20">E85</f>
+        <v>0.12426744274199626</v>
+      </c>
+      <c r="K85" s="5">
+        <f>(J85-J84)/(I85-I84)</f>
+        <v>5.9648372516158212E-2</v>
+      </c>
+      <c r="L85" s="5">
+        <f>(K85-K84)/(I85-I84)</f>
+        <v>2.8631218807755945E-2</v>
+      </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>10</v>
       </c>
@@ -5117,11 +8923,27 @@
         <v>34.979999999999997</v>
       </c>
       <c r="E86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.61051617234761646</v>
       </c>
+      <c r="I86" s="5">
+        <f t="shared" si="19"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="J86" s="5">
+        <f t="shared" si="20"/>
+        <v>0.61051617234761646</v>
+      </c>
+      <c r="K86" s="5">
+        <f t="shared" ref="K86:K94" si="21">(J86-J85)/(I86-I85)</f>
+        <v>0.23339939021069772</v>
+      </c>
+      <c r="L86" s="5">
+        <f t="shared" ref="L86:L94" si="22">(K86-K85)/(I86-I85)</f>
+        <v>8.3400488493378985E-2</v>
+      </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>15</v>
       </c>
@@ -5130,11 +8952,27 @@
         <v>96.639999999999986</v>
       </c>
       <c r="E87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.6866861891273199</v>
       </c>
+      <c r="I87" s="5">
+        <f t="shared" si="19"/>
+        <v>6.25</v>
+      </c>
+      <c r="J87" s="5">
+        <f t="shared" si="20"/>
+        <v>1.6866861891273199</v>
+      </c>
+      <c r="K87" s="5">
+        <f t="shared" si="21"/>
+        <v>0.51656160805425755</v>
+      </c>
+      <c r="L87" s="5">
+        <f t="shared" si="22"/>
+        <v>0.13591786456490867</v>
+      </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>20</v>
       </c>
@@ -5143,11 +8981,27 @@
         <v>185.77999999999997</v>
       </c>
       <c r="E88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.2424726843550649</v>
       </c>
+      <c r="I88" s="5">
+        <f t="shared" si="19"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="J88" s="5">
+        <f t="shared" si="20"/>
+        <v>3.2424726843550649</v>
+      </c>
+      <c r="K88" s="5">
+        <f t="shared" si="21"/>
+        <v>0.746777517709318</v>
+      </c>
+      <c r="L88" s="5">
+        <f t="shared" si="22"/>
+        <v>0.11050363663442908</v>
+      </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>25</v>
       </c>
@@ -5156,11 +9010,27 @@
         <v>310.73999999999995</v>
       </c>
       <c r="E89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.4234361176471788</v>
       </c>
+      <c r="I89" s="5">
+        <f t="shared" si="19"/>
+        <v>10.416666666666668</v>
+      </c>
+      <c r="J89" s="5">
+        <f t="shared" si="20"/>
+        <v>5.4234361176471788</v>
+      </c>
+      <c r="K89" s="5">
+        <f t="shared" si="21"/>
+        <v>1.0468624479802136</v>
+      </c>
+      <c r="L89" s="5">
+        <f t="shared" si="22"/>
+        <v>0.1440407665300297</v>
+      </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>30</v>
       </c>
@@ -5169,11 +9039,27 @@
         <v>440.94999999999993</v>
       </c>
       <c r="E90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.6960293366689951</v>
       </c>
+      <c r="I90" s="5">
+        <f t="shared" si="19"/>
+        <v>12.5</v>
+      </c>
+      <c r="J90" s="5">
+        <f t="shared" si="20"/>
+        <v>7.6960293366689951</v>
+      </c>
+      <c r="K90" s="5">
+        <f t="shared" si="21"/>
+        <v>1.0908447451304724</v>
+      </c>
+      <c r="L90" s="5">
+        <f t="shared" si="22"/>
+        <v>2.1111502632124239E-2</v>
+      </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>35</v>
       </c>
@@ -5182,11 +9068,27 @@
         <v>573.94999999999993</v>
       </c>
       <c r="E91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>10.017317241821454</v>
       </c>
+      <c r="I91" s="5">
+        <f t="shared" si="19"/>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="J91" s="5">
+        <f t="shared" si="20"/>
+        <v>10.017317241821454</v>
+      </c>
+      <c r="K91" s="5">
+        <f t="shared" si="21"/>
+        <v>1.1142181944731799</v>
+      </c>
+      <c r="L91" s="5">
+        <f t="shared" si="22"/>
+        <v>1.1219255684499633E-2</v>
+      </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>40</v>
       </c>
@@ -5195,11 +9097,27 @@
         <v>768</v>
       </c>
       <c r="E92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>13.404128655316452</v>
       </c>
+      <c r="I92" s="5">
+        <f t="shared" si="19"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="J92" s="5">
+        <f t="shared" si="20"/>
+        <v>13.404128655316452</v>
+      </c>
+      <c r="K92" s="5">
+        <f t="shared" si="21"/>
+        <v>1.6256694784776013</v>
+      </c>
+      <c r="L92" s="5">
+        <f t="shared" si="22"/>
+        <v>0.24549661632212263</v>
+      </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>45</v>
       </c>
@@ -5208,11 +9126,27 @@
         <v>907.11</v>
       </c>
       <c r="E93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>15.832056177765763</v>
       </c>
+      <c r="I93" s="5">
+        <f t="shared" si="19"/>
+        <v>18.75</v>
+      </c>
+      <c r="J93" s="5">
+        <f t="shared" si="20"/>
+        <v>15.832056177765763</v>
+      </c>
+      <c r="K93" s="5">
+        <f t="shared" si="21"/>
+        <v>1.1654052107756678</v>
+      </c>
+      <c r="L93" s="5">
+        <f t="shared" si="22"/>
+        <v>-0.22092684849692784</v>
+      </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>50</v>
       </c>
@@ -5221,18 +9155,671 @@
         <v>1074.52</v>
       </c>
       <c r="E94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>18.753911878529468</v>
       </c>
+      <c r="I94" s="5">
+        <f t="shared" si="19"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="J94" s="5">
+        <f t="shared" si="20"/>
+        <v>18.753911878529468</v>
+      </c>
+      <c r="K94" s="5">
+        <f t="shared" si="21"/>
+        <v>1.4024907363665771</v>
+      </c>
+      <c r="L94" s="5">
+        <f t="shared" si="22"/>
+        <v>0.11380105228363629</v>
+      </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>35</v>
       </c>
+      <c r="C98" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C99" s="4">
+        <v>0</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+      <c r="I99" s="5">
+        <f>C99/240 * 100</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="5">
+        <f>E99</f>
+        <v>0</v>
+      </c>
+      <c r="K99" s="5">
+        <v>0</v>
+      </c>
+      <c r="L99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C100" s="4">
+        <v>5</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="4">
+        <v>4.8694686000000001E-2</v>
+      </c>
+      <c r="I100" s="5">
+        <f t="shared" ref="I100:I109" si="23">C100/240 * 100</f>
+        <v>2.083333333333333</v>
+      </c>
+      <c r="J100" s="5">
+        <f t="shared" ref="J100:J109" si="24">E100</f>
+        <v>4.8694686000000001E-2</v>
+      </c>
+      <c r="K100" s="5">
+        <f>(J100-J99)/(I100-I99)</f>
+        <v>2.3373449280000003E-2</v>
+      </c>
+      <c r="L100" s="5">
+        <f>(K100-K99)/(I100-I99)</f>
+        <v>1.1219255654400004E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C101" s="4">
+        <v>10</v>
+      </c>
+      <c r="D101" s="4">
+        <v>33.89</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0.59149208399999997</v>
+      </c>
+      <c r="I101" s="5">
+        <f t="shared" si="23"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="J101" s="5">
+        <f t="shared" si="24"/>
+        <v>0.59149208399999997</v>
+      </c>
+      <c r="K101" s="5">
+        <f t="shared" ref="K101:K109" si="25">(J101-J100)/(I101-I100)</f>
+        <v>0.26054275104000002</v>
+      </c>
+      <c r="L101" s="5">
+        <f t="shared" ref="L101:L109" si="26">(K101-K100)/(I101-I100)</f>
+        <v>0.11384126484480002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C102" s="4">
+        <v>15</v>
+      </c>
+      <c r="D102" s="4">
+        <v>117.94</v>
+      </c>
+      <c r="E102" s="4">
+        <v>2.05844132</v>
+      </c>
+      <c r="I102" s="5">
+        <f t="shared" si="23"/>
+        <v>6.25</v>
+      </c>
+      <c r="J102" s="5">
+        <f t="shared" si="24"/>
+        <v>2.05844132</v>
+      </c>
+      <c r="K102" s="5">
+        <f t="shared" si="25"/>
+        <v>0.70413563327999984</v>
+      </c>
+      <c r="L102" s="5">
+        <f t="shared" si="26"/>
+        <v>0.21292458347519985</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C103" s="4">
+        <v>20</v>
+      </c>
+      <c r="D103" s="4">
+        <v>235.66</v>
+      </c>
+      <c r="E103" s="4">
+        <v>4.1130429150000003</v>
+      </c>
+      <c r="I103" s="5">
+        <f t="shared" si="23"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="J103" s="5">
+        <f t="shared" si="24"/>
+        <v>4.1130429150000003</v>
+      </c>
+      <c r="K103" s="5">
+        <f t="shared" si="25"/>
+        <v>0.9862087656000007</v>
+      </c>
+      <c r="L103" s="5">
+        <f t="shared" si="26"/>
+        <v>0.13539510351360048</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C104" s="4">
+        <v>25</v>
+      </c>
+      <c r="D104" s="4">
+        <v>390.47</v>
+      </c>
+      <c r="E104" s="4">
+        <v>6.8149871299999996</v>
+      </c>
+      <c r="I104" s="5">
+        <f t="shared" si="23"/>
+        <v>10.416666666666668</v>
+      </c>
+      <c r="J104" s="5">
+        <f t="shared" si="24"/>
+        <v>6.8149871299999996</v>
+      </c>
+      <c r="K104" s="5">
+        <f t="shared" si="25"/>
+        <v>1.2969332231999982</v>
+      </c>
+      <c r="L104" s="5">
+        <f t="shared" si="26"/>
+        <v>0.1491477396479986</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C105" s="4">
+        <v>30</v>
+      </c>
+      <c r="D105" s="4">
+        <v>539.38</v>
+      </c>
+      <c r="E105" s="4">
+        <v>9.4139569190000003</v>
+      </c>
+      <c r="I105" s="5">
+        <f t="shared" si="23"/>
+        <v>12.5</v>
+      </c>
+      <c r="J105" s="5">
+        <f t="shared" si="24"/>
+        <v>9.4139569190000003</v>
+      </c>
+      <c r="K105" s="5">
+        <f t="shared" si="25"/>
+        <v>1.2475054987200012</v>
+      </c>
+      <c r="L105" s="5">
+        <f t="shared" si="26"/>
+        <v>-2.3725307750398571E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C106" s="4">
         <v>35</v>
+      </c>
+      <c r="D106" s="4">
+        <v>746.73</v>
+      </c>
+      <c r="E106" s="4">
+        <v>13.032897119999999</v>
+      </c>
+      <c r="I106" s="5">
+        <f t="shared" si="23"/>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="J106" s="5">
+        <f t="shared" si="24"/>
+        <v>13.032897119999999</v>
+      </c>
+      <c r="K106" s="5">
+        <f t="shared" si="25"/>
+        <v>1.7370912964799992</v>
+      </c>
+      <c r="L106" s="5">
+        <f t="shared" si="26"/>
+        <v>0.23500118292479896</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C107" s="4">
+        <v>40</v>
+      </c>
+      <c r="D107" s="4">
+        <v>910.92</v>
+      </c>
+      <c r="E107" s="4">
+        <v>15.89855322</v>
+      </c>
+      <c r="I107" s="5">
+        <f t="shared" si="23"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="J107" s="5">
+        <f t="shared" si="24"/>
+        <v>15.89855322</v>
+      </c>
+      <c r="K107" s="5">
+        <f t="shared" si="25"/>
+        <v>1.3755149280000023</v>
+      </c>
+      <c r="L107" s="5">
+        <f t="shared" si="26"/>
+        <v>-0.17355665687039873</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C108" s="4">
+        <v>45</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1151.4100000000001</v>
+      </c>
+      <c r="E108" s="4">
+        <v>20.095895540000001</v>
+      </c>
+      <c r="I108" s="5">
+        <f t="shared" si="23"/>
+        <v>18.75</v>
+      </c>
+      <c r="J108" s="5">
+        <f t="shared" si="24"/>
+        <v>20.095895540000001</v>
+      </c>
+      <c r="K108" s="5">
+        <f t="shared" si="25"/>
+        <v>2.0147243135999982</v>
+      </c>
+      <c r="L108" s="5">
+        <f t="shared" si="26"/>
+        <v>0.30682050508799769</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C109" s="4">
+        <v>50</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1312.46</v>
+      </c>
+      <c r="E109" s="4">
+        <v>22.9067483</v>
+      </c>
+      <c r="I109" s="5">
+        <f t="shared" si="23"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="J109" s="5">
+        <f t="shared" si="24"/>
+        <v>22.9067483</v>
+      </c>
+      <c r="K109" s="5">
+        <f t="shared" si="25"/>
+        <v>1.3492093247999983</v>
+      </c>
+      <c r="L109" s="5">
+        <f t="shared" si="26"/>
+        <v>-0.31944719462399956</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>35</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C112" s="4">
+        <v>0</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0</v>
+      </c>
+      <c r="I112" s="5">
+        <f>C112/240 * 100</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="5">
+        <f>E112</f>
+        <v>0</v>
+      </c>
+      <c r="K112" s="5">
+        <v>0</v>
+      </c>
+      <c r="L112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C113" s="4">
+        <v>5</v>
+      </c>
+      <c r="D113" s="4">
+        <v>22.14</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0.38641589599999998</v>
+      </c>
+      <c r="I113" s="5">
+        <f t="shared" ref="I113:I122" si="27">C113/240 * 100</f>
+        <v>2.083333333333333</v>
+      </c>
+      <c r="J113" s="5">
+        <f t="shared" ref="J113:J122" si="28">E113</f>
+        <v>0.38641589599999998</v>
+      </c>
+      <c r="K113" s="5">
+        <f>(J113-J112)/(I113-I112)</f>
+        <v>0.18547963008000001</v>
+      </c>
+      <c r="L113" s="5">
+        <f>(K113-K112)/(I113-I112)</f>
+        <v>8.9030222438400017E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C114" s="4">
+        <v>10</v>
+      </c>
+      <c r="D114" s="4">
+        <v>75.180000000000007</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1.3121385320000001</v>
+      </c>
+      <c r="I114" s="5">
+        <f t="shared" si="27"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="J114" s="5">
+        <f t="shared" si="28"/>
+        <v>1.3121385320000001</v>
+      </c>
+      <c r="K114" s="5">
+        <f t="shared" ref="K114:K122" si="29">(J114-J113)/(I114-I113)</f>
+        <v>0.44434686528000011</v>
+      </c>
+      <c r="L114" s="5">
+        <f t="shared" ref="L114:L122" si="30">(K114-K113)/(I114-I113)</f>
+        <v>0.12425627289600007</v>
+      </c>
+    </row>
+    <row r="115" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C115" s="4">
+        <v>15</v>
+      </c>
+      <c r="D115" s="4">
+        <v>160.53</v>
+      </c>
+      <c r="E115" s="4">
+        <v>2.8017770479999999</v>
+      </c>
+      <c r="I115" s="5">
+        <f t="shared" si="27"/>
+        <v>6.25</v>
+      </c>
+      <c r="J115" s="5">
+        <f t="shared" si="28"/>
+        <v>2.8017770479999999</v>
+      </c>
+      <c r="K115" s="5">
+        <f t="shared" si="29"/>
+        <v>0.71502648767999977</v>
+      </c>
+      <c r="L115" s="5">
+        <f t="shared" si="30"/>
+        <v>0.12992621875199981</v>
+      </c>
+    </row>
+    <row r="116" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C116" s="4">
+        <v>20</v>
+      </c>
+      <c r="D116" s="4">
+        <v>294.52</v>
+      </c>
+      <c r="E116" s="4">
+        <v>5.140343713</v>
+      </c>
+      <c r="I116" s="5">
+        <f t="shared" si="27"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="J116" s="5">
+        <f t="shared" si="28"/>
+        <v>5.140343713</v>
+      </c>
+      <c r="K116" s="5">
+        <f t="shared" si="29"/>
+        <v>1.1225119992000008</v>
+      </c>
+      <c r="L116" s="5">
+        <f t="shared" si="30"/>
+        <v>0.19559304552960061</v>
+      </c>
+    </row>
+    <row r="117" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C117" s="4">
+        <v>25</v>
+      </c>
+      <c r="D117" s="4">
+        <v>431.77</v>
+      </c>
+      <c r="E117" s="4">
+        <v>7.5358081109999997</v>
+      </c>
+      <c r="I117" s="5">
+        <f t="shared" si="27"/>
+        <v>10.416666666666668</v>
+      </c>
+      <c r="J117" s="5">
+        <f t="shared" si="28"/>
+        <v>7.5358081109999997</v>
+      </c>
+      <c r="K117" s="5">
+        <f t="shared" si="29"/>
+        <v>1.1498229110399985</v>
+      </c>
+      <c r="L117" s="5">
+        <f t="shared" si="30"/>
+        <v>1.310923768319887E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C118" s="4">
+        <v>30</v>
+      </c>
+      <c r="D118" s="4">
+        <v>591.66</v>
+      </c>
+      <c r="E118" s="4">
+        <v>10.32641505</v>
+      </c>
+      <c r="I118" s="5">
+        <f t="shared" si="27"/>
+        <v>12.5</v>
+      </c>
+      <c r="J118" s="5">
+        <f t="shared" si="28"/>
+        <v>10.32641505</v>
+      </c>
+      <c r="K118" s="5">
+        <f t="shared" si="29"/>
+        <v>1.3394913307200007</v>
+      </c>
+      <c r="L118" s="5">
+        <f t="shared" si="30"/>
+        <v>9.1040841446401136E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C119" s="4">
+        <v>35</v>
+      </c>
+      <c r="D119" s="4">
+        <v>758.2</v>
+      </c>
+      <c r="E119" s="4">
+        <v>13.23308639</v>
+      </c>
+      <c r="I119" s="5">
+        <f t="shared" si="27"/>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="J119" s="5">
+        <f t="shared" si="28"/>
+        <v>13.23308639</v>
+      </c>
+      <c r="K119" s="5">
+        <f t="shared" si="29"/>
+        <v>1.3952022432</v>
+      </c>
+      <c r="L119" s="5">
+        <f t="shared" si="30"/>
+        <v>2.6741237990399638E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C120" s="4">
+        <v>40</v>
+      </c>
+      <c r="D120" s="4">
+        <v>914.69</v>
+      </c>
+      <c r="E120" s="4">
+        <v>15.964352140000001</v>
+      </c>
+      <c r="I120" s="5">
+        <f t="shared" si="27"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="J120" s="5">
+        <f t="shared" si="28"/>
+        <v>15.964352140000001</v>
+      </c>
+      <c r="K120" s="5">
+        <f t="shared" si="29"/>
+        <v>1.311007560000002</v>
+      </c>
+      <c r="L120" s="5">
+        <f t="shared" si="30"/>
+        <v>-4.0413447935999103E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C121" s="4">
+        <v>45</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1106.93</v>
+      </c>
+      <c r="E121" s="4">
+        <v>19.319573089999999</v>
+      </c>
+      <c r="I121" s="5">
+        <f t="shared" si="27"/>
+        <v>18.75</v>
+      </c>
+      <c r="J121" s="5">
+        <f t="shared" si="28"/>
+        <v>19.319573089999999</v>
+      </c>
+      <c r="K121" s="5">
+        <f t="shared" si="29"/>
+        <v>1.6105060559999971</v>
+      </c>
+      <c r="L121" s="5">
+        <f t="shared" si="30"/>
+        <v>0.1437592780799975</v>
+      </c>
+    </row>
+    <row r="122" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C122" s="4">
+        <v>50</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1268.24</v>
+      </c>
+      <c r="E122" s="4">
+        <v>22.134963710000001</v>
+      </c>
+      <c r="I122" s="5">
+        <f t="shared" si="27"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="J122" s="5">
+        <f t="shared" si="28"/>
+        <v>22.134963710000001</v>
+      </c>
+      <c r="K122" s="5">
+        <f t="shared" si="29"/>
+        <v>1.3513874975999995</v>
+      </c>
+      <c r="L122" s="5">
+        <f t="shared" si="30"/>
+        <v>-0.12437690803199868</v>
       </c>
     </row>
   </sheetData>
